--- a/stats_region_qtr.xlsx
+++ b/stats_region_qtr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">region</t>
   </si>
@@ -84,12 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">2022Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023Q2</t>
   </si>
   <si>
     <t xml:space="preserve">Americas</t>
@@ -493,22 +487,22 @@
         <v>43921</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0031436161171588</v>
+        <v>0.00319052767169414</v>
       </c>
       <c r="G2" t="n">
-        <v>0.128063751940905</v>
+        <v>0.118514967508256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000337887665913024</v>
+        <v>0.000322602898025393</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00137084535595179</v>
+        <v>0.00133450684305249</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000066175485846252</v>
+        <v>0.0000558509633646202</v>
       </c>
     </row>
     <row r="3">
@@ -528,22 +522,22 @@
         <v>44012</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00672877244137039</v>
+        <v>0.00672232149122752</v>
       </c>
       <c r="G3" t="n">
-        <v>0.127656797100559</v>
+        <v>0.13837028294688</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00170101777563576</v>
+        <v>0.00168694894315014</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00494251576776006</v>
+        <v>0.00495515583965116</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000644366433148271</v>
+        <v>0.00061619268995571</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +557,22 @@
         <v>44104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0120724818707084</v>
+        <v>0.0125424894726221</v>
       </c>
       <c r="G4" t="n">
-        <v>0.131806675891863</v>
+        <v>0.133472619309435</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00426080521650582</v>
+        <v>0.00444990297940842</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0149240147638904</v>
+        <v>0.0152892671411851</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00135719607718068</v>
+        <v>0.00136160265559048</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +592,22 @@
         <v>44196</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0121157722131602</v>
+        <v>0.0121875244851258</v>
       </c>
       <c r="G5" t="n">
-        <v>0.22058872310642</v>
+        <v>0.219775135335215</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00296013490110283</v>
+        <v>0.00288371496910937</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00956929980235301</v>
+        <v>0.00951217849793131</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00109802046007692</v>
+        <v>0.00106982371323917</v>
       </c>
     </row>
     <row r="6">
@@ -633,22 +627,22 @@
         <v>44286</v>
       </c>
       <c r="F6" t="n">
-        <v>0.019976210117125</v>
+        <v>0.021509043811204</v>
       </c>
       <c r="G6" t="n">
-        <v>0.266376804495627</v>
+        <v>0.316978221306239</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00503612996888458</v>
+        <v>0.0052838712329237</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0203112176244636</v>
+        <v>0.021961403872672</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00189167642799464</v>
+        <v>0.00186687614289697</v>
       </c>
     </row>
     <row r="7">
@@ -668,22 +662,22 @@
         <v>44377</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0208821969198433</v>
+        <v>0.0209670214302786</v>
       </c>
       <c r="G7" t="n">
-        <v>0.456327052863967</v>
+        <v>0.400474751556197</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00520182177774753</v>
+        <v>0.005425114203423</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0205743814553897</v>
+        <v>0.0201131478550155</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00182579521643609</v>
+        <v>0.00181224172558077</v>
       </c>
     </row>
     <row r="8">
@@ -703,22 +697,22 @@
         <v>44469</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0305511691047739</v>
+        <v>0.0340580648148917</v>
       </c>
       <c r="G8" t="n">
-        <v>0.699136370231584</v>
+        <v>0.711206197931862</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00531881387867701</v>
+        <v>0.00560779526989914</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0264552394220309</v>
+        <v>0.0285461449431208</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00146322300353527</v>
+        <v>0.0013979168464028</v>
       </c>
     </row>
     <row r="9">
@@ -738,22 +732,22 @@
         <v>44561</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0176350021950792</v>
+        <v>0.01931927418037</v>
       </c>
       <c r="G9" t="n">
-        <v>0.593314872165413</v>
+        <v>1.00619485639197</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00236737900182024</v>
+        <v>0.00224498764191522</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0115121277141557</v>
+        <v>0.0117305718037622</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000398459818810703</v>
+        <v>0.000338501091349683</v>
       </c>
     </row>
     <row r="10">
@@ -773,22 +767,22 @@
         <v>44651</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0111674079613633</v>
+        <v>0.0134912029390046</v>
       </c>
       <c r="G10" t="n">
-        <v>0.418096157337946</v>
+        <v>0.427233577141295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00164638711339157</v>
+        <v>0.00194409072832026</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00934597691253661</v>
+        <v>0.00988795695293656</v>
       </c>
       <c r="K10" t="n">
-        <v>0.000439356511799775</v>
+        <v>0.000474680876984543</v>
       </c>
     </row>
     <row r="11">
@@ -808,22 +802,22 @@
         <v>44742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00277224533510561</v>
+        <v>0.00273983750177957</v>
       </c>
       <c r="G11" t="n">
-        <v>0.304192215892222</v>
+        <v>0.270006577732405</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000432588266664163</v>
+        <v>0.000423610007520722</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00167604212290362</v>
+        <v>0.00162650200023889</v>
       </c>
       <c r="K11" t="n">
-        <v>0.000129022150822216</v>
+        <v>0.000123867402982482</v>
       </c>
     </row>
     <row r="12">
@@ -843,22 +837,22 @@
         <v>44834</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0017182255019413</v>
+        <v>0.00192848164091621</v>
       </c>
       <c r="G12" t="n">
-        <v>0.045955067273429</v>
+        <v>0.0604974509802011</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000303288664790697</v>
+        <v>0.000311947469926075</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00104234721939435</v>
+        <v>0.00107424038771912</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00010734500213272</v>
+        <v>0.000108803764807121</v>
       </c>
     </row>
     <row r="13">
@@ -875,1996 +869,1706 @@
         <v>44835</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>44926</v>
+        <v>44907</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000795299522363279</v>
+        <v>0.000867993764470262</v>
       </c>
       <c r="G13" t="n">
-        <v>0.044691418404432</v>
+        <v>0.0499061513254948</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000154129357462934</v>
+        <v>0.000149861241408915</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000417993611796474</v>
+        <v>0.00042358186537195</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000035455414208992</v>
+        <v>0.0000350098332684877</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44927</v>
+        <v>43871</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>45016</v>
-      </c>
-      <c r="F14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
+        <v>43921</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0198695090274907</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.427069645203679</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.00412661273183826</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0153020595660635</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.00120080423292507</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2457</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>45017</v>
+        <v>43922</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>45017</v>
-      </c>
-      <c r="F15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
+        <v>44012</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0768872004287457</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.772776963485457</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0298084805127059</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0825366256276222</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0106027777798326</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>591</v>
+        <v>2484</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>43871</v>
+        <v>44013</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>43921</v>
+        <v>44104</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0200677113498319</v>
+        <v>0.119413493114926</v>
       </c>
       <c r="G16" t="n">
-        <v>0.419287211740042</v>
+        <v>0.568780971870799</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00474147468483562</v>
+        <v>0.0783516664808923</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0155945579333754</v>
+        <v>0.175246192730533</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00143368949802405</v>
+        <v>0.0357980498407986</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>2457</v>
+        <v>2484</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>43922</v>
+        <v>44105</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>44012</v>
+        <v>44196</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0756817033920239</v>
+        <v>0.148181099925318</v>
       </c>
       <c r="G17" t="n">
-        <v>0.697242839720463</v>
+        <v>0.999024521510983</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0311429461227032</v>
+        <v>0.116538428998837</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0827368231630633</v>
+        <v>0.209316056242491</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0114929318469141</v>
+        <v>0.0414982927825304</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>2484</v>
+        <v>2430</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>44104</v>
+        <v>44286</v>
       </c>
       <c r="F18" t="n">
-        <v>0.118633908752188</v>
+        <v>0.186808654962688</v>
       </c>
       <c r="G18" t="n">
-        <v>0.542737935784557</v>
+        <v>0.874664128974474</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.000560487848623442</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0797123657827937</v>
+        <v>0.116519750037464</v>
       </c>
       <c r="J18" t="n">
-        <v>0.171268086457559</v>
+        <v>0.297331442746834</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0362303115092359</v>
+        <v>0.0422540790847072</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>2484</v>
+        <v>2457</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>44105</v>
+        <v>44287</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>44196</v>
+        <v>44377</v>
       </c>
       <c r="F19" t="n">
-        <v>0.148618293322319</v>
+        <v>0.171638600743324</v>
       </c>
       <c r="G19" t="n">
-        <v>1.01043564684446</v>
+        <v>1.39045246368396</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.000551605862567399</v>
       </c>
       <c r="I19" t="n">
-        <v>0.117717080685612</v>
+        <v>0.0999954153279218</v>
       </c>
       <c r="J19" t="n">
-        <v>0.215089854601019</v>
+        <v>0.24437375948064</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0429011732796804</v>
+        <v>0.0445430172177826</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>2430</v>
+        <v>2484</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>44197</v>
+        <v>44378</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>44286</v>
+        <v>44469</v>
       </c>
       <c r="F20" t="n">
-        <v>0.183609357458655</v>
+        <v>0.154233764452824</v>
       </c>
       <c r="G20" t="n">
-        <v>0.812493197731368</v>
+        <v>1.11364309847964</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000579075679400541</v>
+        <v>0.000617132281623593</v>
       </c>
       <c r="I20" t="n">
-        <v>0.119320494651062</v>
+        <v>0.0966687393614392</v>
       </c>
       <c r="J20" t="n">
-        <v>0.299483186344649</v>
+        <v>0.217026022065442</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0417801665891369</v>
+        <v>0.041640178767132</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>2457</v>
+        <v>2484</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>44287</v>
+        <v>44470</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>44377</v>
+        <v>44561</v>
       </c>
       <c r="F21" t="n">
-        <v>0.168347899673268</v>
+        <v>0.128219665639953</v>
       </c>
       <c r="G21" t="n">
-        <v>1.13330533789194</v>
+        <v>1.35612431516066</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000507543329341327</v>
+        <v>0.000206244250941505</v>
       </c>
       <c r="I21" t="n">
-        <v>0.101467448730762</v>
+        <v>0.0565906872859869</v>
       </c>
       <c r="J21" t="n">
-        <v>0.239584197533079</v>
+        <v>0.162439629706369</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0436951776956124</v>
+        <v>0.0137713988231267</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>2484</v>
+        <v>2430</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>44378</v>
+        <v>44562</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>44469</v>
+        <v>44651</v>
       </c>
       <c r="F22" t="n">
-        <v>0.147797113884827</v>
+        <v>0.0768774915829507</v>
       </c>
       <c r="G22" t="n">
-        <v>1.00343261167648</v>
+        <v>0.720400127428377</v>
       </c>
       <c r="H22" t="n">
-        <v>0.000648421525865535</v>
+        <v>0.000202567625405323</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0962968731209546</v>
+        <v>0.0405065516568763</v>
       </c>
       <c r="J22" t="n">
-        <v>0.205729884577729</v>
+        <v>0.102446559442859</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0416656957753521</v>
+        <v>0.0112077745778451</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>2484</v>
+        <v>2457</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>44470</v>
+        <v>44652</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>44561</v>
+        <v>44742</v>
       </c>
       <c r="F23" t="n">
-        <v>0.125366658620551</v>
+        <v>0.0337534965782492</v>
       </c>
       <c r="G23" t="n">
-        <v>1.11082961247162</v>
+        <v>0.508787557624661</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000383719373833183</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0611012975869358</v>
+        <v>0.0133471501053869</v>
       </c>
       <c r="J23" t="n">
-        <v>0.161990443176512</v>
+        <v>0.0451700724629389</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0148817069319055</v>
+        <v>0.00469953695626529</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>2430</v>
+        <v>2452</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>44562</v>
+        <v>44743</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>44651</v>
+        <v>44834</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0679089297436954</v>
+        <v>0.0289154405184505</v>
       </c>
       <c r="G24" t="n">
-        <v>0.561851109546251</v>
+        <v>0.174007055648452</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000200405481281605</v>
+        <v>0.0000883367535069864</v>
       </c>
       <c r="I24" t="n">
-        <v>0.037612250221784</v>
+        <v>0.0201952317635065</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0924293460046068</v>
+        <v>0.0367145536604449</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0107457024764092</v>
+        <v>0.00719251480464529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>2457</v>
+        <v>1820</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>44652</v>
+        <v>44835</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>44742</v>
+        <v>44907</v>
       </c>
       <c r="F25" t="n">
-        <v>0.034020127657031</v>
+        <v>0.0143414094716197</v>
       </c>
       <c r="G25" t="n">
-        <v>0.439605506726105</v>
+        <v>0.122305090648543</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0137952300963232</v>
+        <v>0.00562048519617784</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0431550844734029</v>
+        <v>0.0155757301145975</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00482390802773932</v>
+        <v>0.00171300760788312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>2452</v>
+        <v>1365</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>44743</v>
+        <v>43871</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>44834</v>
+        <v>43921</v>
       </c>
       <c r="F26" t="n">
-        <v>0.027571309265591</v>
+        <v>0.0364452508128159</v>
       </c>
       <c r="G26" t="n">
-        <v>0.174816407130589</v>
+        <v>0.808113029493467</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00012250539636271</v>
+        <v>-0.0119310649580203</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0191076696122534</v>
+        <v>0.00583028753101395</v>
       </c>
       <c r="J26" t="n">
-        <v>0.033764054336079</v>
+        <v>0.0316351029871493</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0068978697973657</v>
+        <v>0.000147854101651224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>1820</v>
+        <v>3639</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>44835</v>
+        <v>43922</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>44926</v>
+        <v>44012</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0143383977198041</v>
+        <v>0.081397391427741</v>
       </c>
       <c r="G27" t="n">
-        <v>0.130557438630752</v>
+        <v>1.00221612145669</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.005747731460508</v>
+        <v>0.0308676055772493</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0161255514185946</v>
+        <v>0.0992623547604287</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00184593823135179</v>
+        <v>0.00661239997460428</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3680</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>44927</v>
+        <v>44013</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>45016</v>
-      </c>
-      <c r="F28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
+        <v>44104</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.100024602705871</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.887907102349446</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0420044138540435</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.138585564195694</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.00976442973697907</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3680</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>45017</v>
+        <v>44105</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>45017</v>
-      </c>
-      <c r="F29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
+        <v>44196</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.11185973770975</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.22197259843216</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0570467110669919</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.150257646807193</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0205483829427993</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>1365</v>
+        <v>3600</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>43871</v>
+        <v>44197</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>43921</v>
+        <v>44286</v>
       </c>
       <c r="F30" t="n">
-        <v>0.032662613996911</v>
+        <v>0.143110086548277</v>
       </c>
       <c r="G30" t="n">
-        <v>0.691511918669359</v>
+        <v>1.1958977395115</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0112411527964102</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00670151454228656</v>
+        <v>0.0828867957292895</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0328098342009712</v>
+        <v>0.207728534027376</v>
       </c>
       <c r="K30" t="n">
-        <v>0.000177408033154013</v>
+        <v>0.0263131341539175</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C31" t="n">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>44012</v>
+        <v>44377</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0787433480662995</v>
+        <v>0.163657035997969</v>
       </c>
       <c r="G31" t="n">
-        <v>1.2823461759632</v>
+        <v>1.75876156774546</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0319177998124428</v>
+        <v>0.111137281210117</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0995879808220933</v>
+        <v>0.223193891507192</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00706113293758001</v>
+        <v>0.0284935854247498</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C32" t="n">
         <v>3680</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>44104</v>
+        <v>44469</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0972969698256914</v>
+        <v>0.189064832606716</v>
       </c>
       <c r="G32" t="n">
-        <v>0.769009258086348</v>
+        <v>1.40160648365574</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0427981479027881</v>
+        <v>0.0969367672640876</v>
       </c>
       <c r="J32" t="n">
-        <v>0.134739669137356</v>
+        <v>0.221238160383068</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0100300102570301</v>
+        <v>0.0346260201994237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
         <v>3680</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>44196</v>
+        <v>44561</v>
       </c>
       <c r="F33" t="n">
-        <v>0.110028762572662</v>
+        <v>0.164425893537813</v>
       </c>
       <c r="G33" t="n">
-        <v>1.01549825969633</v>
+        <v>2.40966284884659</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.055529216307129</v>
+        <v>0.0714499679993023</v>
       </c>
       <c r="J33" t="n">
-        <v>0.146914119021214</v>
+        <v>0.195905122150209</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0209460894103165</v>
+        <v>0.0133181552358619</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C34" t="n">
         <v>3600</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>44286</v>
+        <v>44651</v>
       </c>
       <c r="F34" t="n">
-        <v>0.138690469138066</v>
+        <v>0.0989869996192913</v>
       </c>
       <c r="G34" t="n">
-        <v>1.00853692309545</v>
+        <v>1.49049801217417</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0842370828860282</v>
+        <v>0.0335745056271578</v>
       </c>
       <c r="J34" t="n">
-        <v>0.208150797653988</v>
+        <v>0.1091585142089</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0273807550707515</v>
+        <v>0.0046854715070554</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C35" t="n">
         <v>3640</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="F35" t="n">
-        <v>0.154373465429906</v>
+        <v>0.0915214231682029</v>
       </c>
       <c r="G35" t="n">
-        <v>1.33583823408415</v>
+        <v>1.79834280208847</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.112387214962019</v>
+        <v>0.00637668977674732</v>
       </c>
       <c r="J35" t="n">
-        <v>0.21130941454755</v>
+        <v>0.0620362204225217</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0282827254043798</v>
+        <v>0.00119404317897418</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C36" t="n">
-        <v>3680</v>
+        <v>3675</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>44469</v>
+        <v>44834</v>
       </c>
       <c r="F36" t="n">
-        <v>0.181010181290632</v>
+        <v>0.0580273049558959</v>
       </c>
       <c r="G36" t="n">
-        <v>1.17323797429017</v>
+        <v>0.660152359269896</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0960775898850691</v>
+        <v>0.0117717927612671</v>
       </c>
       <c r="J36" t="n">
-        <v>0.213099536292818</v>
+        <v>0.0461760979434247</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0342583172649496</v>
+        <v>0.00190805368480647</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>3680</v>
+        <v>2710</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>44561</v>
+        <v>44907</v>
       </c>
       <c r="F37" t="n">
-        <v>0.160013134405723</v>
+        <v>0.046273192716986</v>
       </c>
       <c r="G37" t="n">
-        <v>1.97964956682087</v>
+        <v>0.721067505201309</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0764032698136624</v>
+        <v>0.0056126727984254</v>
       </c>
       <c r="J37" t="n">
-        <v>0.196605388962777</v>
+        <v>0.0293830079163125</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0150647790278198</v>
+        <v>0.000850321857759529</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>3600</v>
+        <v>1199</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>44562</v>
+        <v>43871</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>44651</v>
+        <v>43921</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0891340894124689</v>
+        <v>0.095726334551579</v>
       </c>
       <c r="G38" t="n">
-        <v>1.23747080833965</v>
+        <v>7.26984126984127</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0304782228405698</v>
+        <v>0.0119890293645904</v>
       </c>
       <c r="J38" t="n">
-        <v>0.101599000249906</v>
+        <v>0.0672943466787218</v>
       </c>
       <c r="K38" t="n">
-        <v>0.00471306615120651</v>
+        <v>0.00149045684349033</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
         <v>3640</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>44652</v>
+        <v>43922</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>44742</v>
+        <v>44012</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0852249266934283</v>
+        <v>0.28513255523087</v>
       </c>
       <c r="G39" t="n">
-        <v>1.53125223923054</v>
+        <v>14.2222222222222</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00630334744522179</v>
+        <v>0.14465990448585</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0636304250325369</v>
+        <v>0.297331688777661</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00124826143383599</v>
+        <v>0.0657514678910489</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C40" t="n">
-        <v>3675</v>
+        <v>3680</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>44743</v>
+        <v>44013</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>44834</v>
+        <v>44104</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0562903486827</v>
+        <v>0.221417214004356</v>
       </c>
       <c r="G40" t="n">
-        <v>0.61110798435826</v>
+        <v>1.4114627887083</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0110278143828797</v>
+        <v>0.161566588138437</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0455862929900562</v>
+        <v>0.297053250575903</v>
       </c>
       <c r="K40" t="n">
-        <v>0.00182014189454665</v>
+        <v>0.0752773034162016</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C41" t="n">
-        <v>2710</v>
+        <v>3680</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>44835</v>
+        <v>44105</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>44926</v>
+        <v>44196</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0451175333567834</v>
+        <v>0.315653311108152</v>
       </c>
       <c r="G41" t="n">
-        <v>0.661910061992747</v>
+        <v>3.2255598868761</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.0184037291007162</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0056198199275949</v>
+        <v>0.266485766826448</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0280989040572826</v>
+        <v>0.448192723337723</v>
       </c>
       <c r="K41" t="n">
-        <v>0.000818241358851815</v>
+        <v>0.124051466517826</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>44927</v>
+        <v>44197</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>45016</v>
-      </c>
-      <c r="F42" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G42" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H42" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
+        <v>44286</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.41993292855794</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.64918095557178</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0404908968596351</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.356584588559615</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.588737812934906</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.154806935733397</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3640</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>45017</v>
+        <v>44287</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>45017</v>
-      </c>
-      <c r="F43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
+        <v>44377</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.556958555180924</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.03658672277238</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0119196614816139</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.407653138560669</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.770530924800924</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.216331809169354</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C44" t="n">
-        <v>1199</v>
+        <v>3680</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>43871</v>
+        <v>44378</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>43921</v>
+        <v>44469</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0831455080984392</v>
+        <v>0.388968657109682</v>
       </c>
       <c r="G44" t="n">
-        <v>3.9715574054804</v>
+        <v>2.17847877115678</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.00949185361663353</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0144788724215149</v>
+        <v>0.305526524065146</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0654380114039619</v>
+        <v>0.550792127450008</v>
       </c>
       <c r="K44" t="n">
-        <v>0.00188380121702934</v>
+        <v>0.101033690887402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C45" t="n">
-        <v>3640</v>
+        <v>3680</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>43922</v>
+        <v>44470</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>44012</v>
+        <v>44561</v>
       </c>
       <c r="F45" t="n">
-        <v>0.247145338361462</v>
+        <v>0.324946333607786</v>
       </c>
       <c r="G45" t="n">
-        <v>11.2169312169312</v>
+        <v>2.17434603087311</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.00578942064273485</v>
       </c>
       <c r="I45" t="n">
-        <v>0.13708331832414</v>
+        <v>0.253146799795137</v>
       </c>
       <c r="J45" t="n">
-        <v>0.270595349442401</v>
+        <v>0.427272547870584</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0638457661956539</v>
+        <v>0.123236721483987</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C46" t="n">
-        <v>3680</v>
+        <v>3600</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>44013</v>
+        <v>44562</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>44104</v>
+        <v>44651</v>
       </c>
       <c r="F46" t="n">
-        <v>0.230816141804982</v>
+        <v>0.309160363114258</v>
       </c>
       <c r="G46" t="n">
-        <v>1.33759233379916</v>
+        <v>2.17586391055779</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.00739818858452993</v>
       </c>
       <c r="I46" t="n">
-        <v>0.172888179709294</v>
+        <v>0.247321972994713</v>
       </c>
       <c r="J46" t="n">
-        <v>0.323379438563522</v>
+        <v>0.411505246687311</v>
       </c>
       <c r="K46" t="n">
-        <v>0.079559046171884</v>
+        <v>0.12948426380064</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C47" t="n">
-        <v>3680</v>
+        <v>3640</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>44105</v>
+        <v>44652</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>44196</v>
+        <v>44742</v>
       </c>
       <c r="F47" t="n">
-        <v>0.313715974133963</v>
+        <v>0.19098788484396</v>
       </c>
       <c r="G47" t="n">
-        <v>2.61932840916144</v>
+        <v>1.9545275668618</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0241227951630079</v>
+        <v>0.00130562206253855</v>
       </c>
       <c r="I47" t="n">
-        <v>0.274588498577972</v>
+        <v>0.124461954270339</v>
       </c>
       <c r="J47" t="n">
-        <v>0.448139386178401</v>
+        <v>0.265785348278581</v>
       </c>
       <c r="K47" t="n">
-        <v>0.134417201165646</v>
+        <v>0.0520504149848998</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C48" t="n">
-        <v>3600</v>
+        <v>3588</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>44197</v>
+        <v>44743</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>44286</v>
+        <v>44834</v>
       </c>
       <c r="F48" t="n">
-        <v>0.403359524762061</v>
+        <v>0.114294197075445</v>
       </c>
       <c r="G48" t="n">
-        <v>2.29756859246041</v>
+        <v>0.904209028748846</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0441109376560054</v>
+        <v>0.00256956365100557</v>
       </c>
       <c r="I48" t="n">
-        <v>0.357317079799873</v>
+        <v>0.0677648760408585</v>
       </c>
       <c r="J48" t="n">
-        <v>0.577007398186155</v>
+        <v>0.153898982964728</v>
       </c>
       <c r="K48" t="n">
-        <v>0.15481687243782</v>
+        <v>0.0313157335876839</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C49" t="n">
-        <v>3640</v>
+        <v>2742</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>44287</v>
+        <v>44835</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>44377</v>
+        <v>44907</v>
       </c>
       <c r="F49" t="n">
-        <v>0.513277888639783</v>
+        <v>0.0717590187272192</v>
       </c>
       <c r="G49" t="n">
-        <v>2.59367737141771</v>
+        <v>0.486512617373078</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0141184221878848</v>
+        <v>0.000806765130627386</v>
       </c>
       <c r="I49" t="n">
-        <v>0.402476213203406</v>
+        <v>0.0377305863347486</v>
       </c>
       <c r="J49" t="n">
-        <v>0.716942225058492</v>
+        <v>0.0960909347564712</v>
       </c>
       <c r="K49" t="n">
-        <v>0.20791946358609</v>
+        <v>0.0193509418445729</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
-        <v>3680</v>
+        <v>101</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>44378</v>
+        <v>43878</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>44469</v>
+        <v>43921</v>
       </c>
       <c r="F50" t="n">
-        <v>0.386486292347511</v>
+        <v>0.0572609382710493</v>
       </c>
       <c r="G50" t="n">
-        <v>1.96601004248745</v>
+        <v>0.375180375180375</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0126269269216604</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.323841822758247</v>
+        <v>0.0122613632183626</v>
       </c>
       <c r="J50" t="n">
-        <v>0.544926448014466</v>
+        <v>0.109758236252036</v>
       </c>
       <c r="K50" t="n">
-        <v>0.112876802808483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C51" t="n">
-        <v>3680</v>
+        <v>455</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>44470</v>
+        <v>43922</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>44561</v>
+        <v>44012</v>
       </c>
       <c r="F51" t="n">
-        <v>0.338298105811249</v>
+        <v>0.0772121014247553</v>
       </c>
       <c r="G51" t="n">
-        <v>1.79475481586415</v>
+        <v>1.03732100575037</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00766668182316716</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.272139575187893</v>
+        <v>0.001915848280143</v>
       </c>
       <c r="J51" t="n">
-        <v>0.456337475119855</v>
+        <v>0.0598152643698985</v>
       </c>
       <c r="K51" t="n">
-        <v>0.136135761230428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C52" t="n">
-        <v>3600</v>
+        <v>460</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>44562</v>
+        <v>44013</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>44651</v>
+        <v>44104</v>
       </c>
       <c r="F52" t="n">
-        <v>0.291698581849116</v>
+        <v>0.104871331161387</v>
       </c>
       <c r="G52" t="n">
-        <v>1.58347354798427</v>
+        <v>0.542100671767859</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00783546890620317</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.241416488534734</v>
+        <v>0.00915963054409532</v>
       </c>
       <c r="J52" t="n">
-        <v>0.388867100148658</v>
+        <v>0.175506359025258</v>
       </c>
       <c r="K52" t="n">
-        <v>0.125113126959043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>3640</v>
+        <v>460</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>44652</v>
+        <v>44105</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>44742</v>
+        <v>44196</v>
       </c>
       <c r="F53" t="n">
-        <v>0.181661284772638</v>
+        <v>0.0468160992415613</v>
       </c>
       <c r="G53" t="n">
-        <v>1.56405075403228</v>
+        <v>0.354036860935442</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00132095153430883</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.124426337778568</v>
+        <v>0.00376995483977255</v>
       </c>
       <c r="J53" t="n">
-        <v>0.255127958592194</v>
+        <v>0.0762517616014384</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0555640412052954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C54" t="n">
-        <v>3588</v>
+        <v>450</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>44743</v>
+        <v>44197</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>44834</v>
+        <v>44286</v>
       </c>
       <c r="F54" t="n">
-        <v>0.112118483219603</v>
+        <v>0.0302576626270869</v>
       </c>
       <c r="G54" t="n">
-        <v>0.913329989855534</v>
+        <v>0.253747885434288</v>
       </c>
       <c r="H54" t="n">
-        <v>0.00293287559165042</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0682376754910303</v>
+        <v>0.00426405479681859</v>
       </c>
       <c r="J54" t="n">
-        <v>0.155100716746862</v>
+        <v>0.0431255470257081</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0316566591956882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C55" t="n">
-        <v>2742</v>
+        <v>455</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>44835</v>
+        <v>44287</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>44926</v>
+        <v>44377</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0697588549435609</v>
+        <v>0.0512082713926301</v>
       </c>
       <c r="G55" t="n">
-        <v>0.441355519740336</v>
+        <v>0.354195894989137</v>
       </c>
       <c r="H55" t="n">
-        <v>0.000839086101117274</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0368405615899615</v>
+        <v>0.0157133878064111</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0906649365928262</v>
+        <v>0.0472268429885047</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0193998670434815</v>
+        <v>0.00130968177999757</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>44927</v>
+        <v>44378</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>45016</v>
-      </c>
-      <c r="F56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H56" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
+        <v>44469</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.170806788926839</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.59078098578318</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.138108657214963</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.237161784717851</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.011002091522095</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>45017</v>
+        <v>44470</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>45017</v>
-      </c>
-      <c r="F57" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G57" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H57" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
+        <v>44561</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.235308561160434</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.23453459933822</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.00045893522911544</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0878379508148606</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.323387015214576</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0266994743466135</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C58" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>43871</v>
+        <v>44562</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>43921</v>
+        <v>44651</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0503968564806084</v>
+        <v>0.348343842606803</v>
       </c>
       <c r="G58" t="n">
-        <v>0.234310226740204</v>
+        <v>1.74235782893734</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>0.0000242996488891971</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0127187627187627</v>
+        <v>0.0994272007765005</v>
       </c>
       <c r="J58" t="n">
-        <v>0.109696204433348</v>
+        <v>0.628907589705201</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>0.0246354990928948</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C59" t="n">
         <v>455</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>43922</v>
+        <v>44652</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>44012</v>
+        <v>44742</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0674716006029722</v>
+        <v>0.232684080910901</v>
       </c>
       <c r="G59" t="n">
-        <v>0.869522499508744</v>
+        <v>1.01860095040706</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.0000575738019491181</v>
       </c>
       <c r="I59" t="n">
-        <v>0.00188632976817007</v>
+        <v>0.0711322912424837</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0636240004004455</v>
+        <v>0.475592240764992</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>0.00413113759707159</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C60" t="n">
         <v>460</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>44013</v>
+        <v>44743</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>44104</v>
+        <v>44834</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0955516017400861</v>
+        <v>0.124718253142234</v>
       </c>
       <c r="G60" t="n">
-        <v>0.489210561586919</v>
+        <v>0.548749757437131</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.0000130749108429382</v>
       </c>
       <c r="I60" t="n">
-        <v>0.00936993300110671</v>
+        <v>0.051758400976105</v>
       </c>
       <c r="J60" t="n">
-        <v>0.17093799349821</v>
+        <v>0.222959364084698</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>0.00134660601412982</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C61" t="n">
-        <v>460</v>
+        <v>353</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>44105</v>
+        <v>44835</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>44196</v>
+        <v>44907</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0446320721480443</v>
+        <v>0.068576671846789</v>
       </c>
       <c r="G61" t="n">
-        <v>0.303946492585791</v>
+        <v>0.244948479608616</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.0000938526513374003</v>
       </c>
       <c r="I61" t="n">
-        <v>0.00382074638550867</v>
+        <v>0.00810651815828693</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0778872209194713</v>
+        <v>0.131804908758803</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" t="n">
-        <v>450</v>
-      </c>
-      <c r="D62" s="1" t="n">
-        <v>44197</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>44286</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.0298521885722116</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.238578401798936</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.00448012701781786</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.0437939350040771</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" t="n">
-        <v>455</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <v>44287</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>44377</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.0520454822096217</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.34396943753158</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.0147224960748414</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.0561856711261755</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.00171697186201738</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" t="n">
-        <v>460</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <v>44378</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>44469</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.170193253955984</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.55888967620691</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.137785683111925</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.229092559709591</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.00979993240294352</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" t="n">
-        <v>460</v>
-      </c>
-      <c r="D65" s="1" t="n">
-        <v>44470</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>44561</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.230094666783829</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.18980219320785</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.000643235259275166</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.0888768161055549</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.347687657014935</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.0259800835676761</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" t="n">
-        <v>450</v>
-      </c>
-      <c r="D66" s="1" t="n">
-        <v>44562</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>44651</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.336374248507666</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1.52565707133917</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.0000294749459450545</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.110330589388633</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.597089974785487</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.0246102475676309</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" t="n">
-        <v>455</v>
-      </c>
-      <c r="D67" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="E67" s="1" t="n">
-        <v>44742</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.232537501434139</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.969642762537254</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.0000590503079068658</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.071120758197373</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.479448035566799</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.0043456035223846</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" t="n">
-        <v>460</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E68" s="1" t="n">
-        <v>44834</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.118607639519693</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.479540751666004</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.0000132790227097253</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.0531538463154994</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.212337693960563</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.00141133170005407</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" t="n">
-        <v>353</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <v>44835</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>44926</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.0709740342748671</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.253042064951091</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.0000911188315244225</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.0080975814302898</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.141102461524097</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.00109712160184335</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>45016</v>
-      </c>
-      <c r="F70" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G70" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H70" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>45017</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>45017</v>
-      </c>
-      <c r="F71" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G71" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H71" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
+        <v>0.00112606511656229</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stats_region_qtr.xlsx
+++ b/stats_region_qtr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">region</t>
   </si>
@@ -20,7 +20,19 @@
     <t xml:space="preserve">year_quarter</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">n_ascert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_daily_cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_zeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_1to9</t>
   </si>
   <si>
     <t xml:space="preserve">min_date</t>
@@ -84,6 +96,12 @@
   </si>
   <si>
     <t xml:space="preserve">2022Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023Q2</t>
   </si>
   <si>
     <t xml:space="preserve">Americas</t>
@@ -469,1060 +487,1408 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>560</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="D2" t="n">
+        <v>803</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1762</v>
+      </c>
+      <c r="F2" t="n">
+        <v>387</v>
+      </c>
+      <c r="G2" t="n">
+        <v>290</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>43921</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>0.00319052767169414</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>0.118514967508256</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.000322602898025393</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>0.00133450684305249</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>0.0000558509633646202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>4021</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" t="n">
+        <v>4048</v>
+      </c>
+      <c r="E3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F3" t="n">
+        <v>868</v>
+      </c>
+      <c r="G3" t="n">
+        <v>968</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>43922</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="I3" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>0.00672232149122752</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>0.13837028294688</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.00168694894315014</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>0.00495515583965116</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>0.00061619268995571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>4140</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" t="n">
+        <v>4140</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>253</v>
+      </c>
+      <c r="G4" t="n">
+        <v>842</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>44013</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="I4" s="1" t="n">
         <v>44104</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>0.0125424894726221</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>0.133472619309435</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.00444990297940842</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>0.0152892671411851</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>0.00136160265559048</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>4140</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" t="n">
+        <v>4140</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>201</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1009</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>44105</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="I5" s="1" t="n">
         <v>44196</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>0.0121875244851258</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>0.219775135335215</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.00288371496910937</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>0.00951217849793131</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>0.00106982371323917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>4050</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" t="n">
+        <v>4050</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>59</v>
+      </c>
+      <c r="G6" t="n">
+        <v>455</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>44197</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="I6" s="1" t="n">
         <v>44286</v>
       </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
         <v>0.021509043811204</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
         <v>0.316978221306239</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.0052838712329237</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>0.021961403872672</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>0.00186687614289697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>4095</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" t="n">
+        <v>4095</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18</v>
+      </c>
+      <c r="G7" t="n">
+        <v>976</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>44287</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="I7" s="1" t="n">
         <v>44377</v>
       </c>
-      <c r="F7" t="n">
+      <c r="J7" t="n">
         <v>0.0209670214302786</v>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
         <v>0.400474751556197</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.005425114203423</v>
       </c>
-      <c r="J7" t="n">
+      <c r="N7" t="n">
         <v>0.0201131478550155</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>0.00181224172558077</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>4140</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" t="n">
+        <v>4140</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>105</v>
+      </c>
+      <c r="G8" t="n">
+        <v>745</v>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>44378</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="I8" s="1" t="n">
         <v>44469</v>
       </c>
-      <c r="F8" t="n">
+      <c r="J8" t="n">
         <v>0.0340580648148917</v>
       </c>
-      <c r="G8" t="n">
+      <c r="K8" t="n">
         <v>0.711206197931862</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.00560779526989914</v>
       </c>
-      <c r="J8" t="n">
+      <c r="N8" t="n">
         <v>0.0285461449431208</v>
       </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
         <v>0.0013979168464028</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>4140</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" t="n">
+        <v>4140</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>156</v>
+      </c>
+      <c r="G9" t="n">
+        <v>935</v>
+      </c>
+      <c r="H9" s="1" t="n">
         <v>44470</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="I9" s="1" t="n">
         <v>44561</v>
       </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
         <v>0.01931927418037</v>
       </c>
-      <c r="G9" t="n">
+      <c r="K9" t="n">
         <v>1.00619485639197</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.00224498764191522</v>
       </c>
-      <c r="J9" t="n">
+      <c r="N9" t="n">
         <v>0.0117305718037622</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
         <v>0.000338501091349683</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>4050</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" t="n">
+        <v>4050</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>187</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>44562</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="I10" s="1" t="n">
         <v>44651</v>
       </c>
-      <c r="F10" t="n">
+      <c r="J10" t="n">
         <v>0.0134912029390046</v>
       </c>
-      <c r="G10" t="n">
+      <c r="K10" t="n">
         <v>0.427233577141295</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.00194409072832026</v>
       </c>
-      <c r="J10" t="n">
+      <c r="N10" t="n">
         <v>0.00988795695293656</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>0.000474680876984543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>4095</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" t="n">
+        <v>4095</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>469</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>44652</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="I11" s="1" t="n">
         <v>44742</v>
       </c>
-      <c r="F11" t="n">
+      <c r="J11" t="n">
         <v>0.00273983750177957</v>
       </c>
-      <c r="G11" t="n">
+      <c r="K11" t="n">
         <v>0.270006577732405</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.000423610007520722</v>
       </c>
-      <c r="J11" t="n">
+      <c r="N11" t="n">
         <v>0.00162650200023889</v>
       </c>
-      <c r="K11" t="n">
+      <c r="O11" t="n">
         <v>0.000123867402982482</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
         <v>4123</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" t="n">
+        <v>4123</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>264</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>44743</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="I12" s="1" t="n">
         <v>44834</v>
       </c>
-      <c r="F12" t="n">
+      <c r="J12" t="n">
         <v>0.00192848164091621</v>
       </c>
-      <c r="G12" t="n">
+      <c r="K12" t="n">
         <v>0.0604974509802011</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.000311947469926075</v>
       </c>
-      <c r="J12" t="n">
+      <c r="N12" t="n">
         <v>0.00107424038771912</v>
       </c>
-      <c r="K12" t="n">
+      <c r="O12" t="n">
         <v>0.000108803764807121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>2864</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" t="n">
+        <v>2864</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1276</v>
+      </c>
+      <c r="F13" t="n">
+        <v>474</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1539</v>
+      </c>
+      <c r="H13" s="1" t="n">
         <v>44835</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>44907</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="I13" s="1" t="n">
+        <v>44926</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.000867993764470262</v>
       </c>
-      <c r="G13" t="n">
+      <c r="K13" t="n">
         <v>0.0499061513254948</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.000149861241408915</v>
       </c>
-      <c r="J13" t="n">
+      <c r="N13" t="n">
         <v>0.00042358186537195</v>
       </c>
-      <c r="K13" t="n">
+      <c r="O13" t="n">
         <v>0.0000350098332684877</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>591</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>43921</v>
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4050</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0198695090274907</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.427069645203679</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.00412661273183826</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0153020595660635</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.00120080423292507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>2457</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>44012</v>
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>45</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0768872004287457</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.772776963485457</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.0298084805127059</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.0825366256276222</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.0106027777798326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>2484</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>44013</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>44104</v>
+        <v>591</v>
+      </c>
+      <c r="D16" t="n">
+        <v>753</v>
+      </c>
+      <c r="E16" t="n">
+        <v>786</v>
       </c>
       <c r="F16" t="n">
-        <v>0.119413493114926</v>
+        <v>201</v>
       </c>
       <c r="G16" t="n">
-        <v>0.568780971870799</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.0783516664808923</v>
+        <v>271</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>43921</v>
       </c>
       <c r="J16" t="n">
-        <v>0.175246192730533</v>
+        <v>0.0198695090274907</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0357980498407986</v>
+        <v>0.427069645203679</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.00412661273183826</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0153020595660635</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.00120080423292507</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>2484</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>44196</v>
+        <v>2457</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2457</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.148181099925318</v>
+        <v>379</v>
       </c>
       <c r="G17" t="n">
-        <v>0.999024521510983</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.116538428998837</v>
+        <v>415</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>43922</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>44012</v>
       </c>
       <c r="J17" t="n">
-        <v>0.209316056242491</v>
+        <v>0.0768872004287457</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0414982927825304</v>
+        <v>0.772776963485457</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0298084805127059</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0825366256276222</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0106027777798326</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>2430</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>44197</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>44286</v>
+        <v>2484</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2484</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.186808654962688</v>
+        <v>122</v>
       </c>
       <c r="G18" t="n">
-        <v>0.874664128974474</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.000560487848623442</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.116519750037464</v>
+        <v>170</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>44104</v>
       </c>
       <c r="J18" t="n">
-        <v>0.297331442746834</v>
+        <v>0.119413493114926</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0422540790847072</v>
+        <v>0.568780971870799</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0783516664808923</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.175246192730533</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0357980498407986</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>2457</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>44287</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>44377</v>
+        <v>2484</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2484</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.171638600743324</v>
+        <v>73</v>
       </c>
       <c r="G19" t="n">
-        <v>1.39045246368396</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.000551605862567399</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0999954153279218</v>
+        <v>160</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>44196</v>
       </c>
       <c r="J19" t="n">
-        <v>0.24437375948064</v>
+        <v>0.148181099925318</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0445430172177826</v>
+        <v>0.999024521510983</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.116538428998837</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.209316056242491</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.0414982927825304</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>2484</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>44378</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>44469</v>
+        <v>2430</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2430</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.154233764452824</v>
+        <v>28</v>
       </c>
       <c r="G20" t="n">
-        <v>1.11364309847964</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.000617132281623593</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.0966687393614392</v>
+        <v>146</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>44197</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>44286</v>
       </c>
       <c r="J20" t="n">
-        <v>0.217026022065442</v>
+        <v>0.186808654962688</v>
       </c>
       <c r="K20" t="n">
-        <v>0.041640178767132</v>
+        <v>0.874664128974474</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.000560487848623442</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.116519750037464</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.297331442746834</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0422540790847072</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" t="n">
-        <v>2484</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>44470</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>44561</v>
+        <v>2457</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2457</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.128219665639953</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>1.35612431516066</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.000206244250941505</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.0565906872859869</v>
+        <v>78</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>44377</v>
       </c>
       <c r="J21" t="n">
-        <v>0.162439629706369</v>
+        <v>0.171638600743324</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0137713988231267</v>
+        <v>1.39045246368396</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.000551605862567399</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0999954153279218</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.24437375948064</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0445430172177826</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22" t="n">
-        <v>2430</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>44562</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>44651</v>
+        <v>2484</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2484</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0768774915829507</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.720400127428377</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.000202567625405323</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.0405065516568763</v>
+        <v>5</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>44378</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>44469</v>
       </c>
       <c r="J22" t="n">
-        <v>0.102446559442859</v>
+        <v>0.154233764452824</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0112077745778451</v>
+        <v>1.11364309847964</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.000617132281623593</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0966687393614392</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.217026022065442</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.041640178767132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23" t="n">
-        <v>2457</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>44742</v>
+        <v>2484</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2484</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0337534965782492</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.508787557624661</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0133471501053869</v>
+        <v>45</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>44561</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0451700724629389</v>
+        <v>0.128219665639953</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00469953695626529</v>
+        <v>1.35612431516066</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.000206244250941505</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0565906872859869</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.162439629706369</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0137713988231267</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
       <c r="C24" t="n">
-        <v>2452</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>44834</v>
+        <v>2430</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2430</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0289154405184505</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>0.174007055648452</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.0000883367535069864</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.0201952317635065</v>
+        <v>88</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>44562</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>44651</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0367145536604449</v>
+        <v>0.0768774915829507</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00719251480464529</v>
+        <v>0.720400127428377</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.000202567625405323</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0405065516568763</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.102446559442859</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0112077745778451</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>1820</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>44835</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>44907</v>
+        <v>2457</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2457</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0143414094716197</v>
+        <v>59</v>
       </c>
       <c r="G25" t="n">
-        <v>0.122305090648543</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.00562048519617784</v>
+        <v>182</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>44742</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0155757301145975</v>
+        <v>0.0337534965782492</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00171300760788312</v>
+        <v>0.508787557624661</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0133471501053869</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0451700724629389</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.00469953695626529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C26" t="n">
-        <v>1365</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>43921</v>
+        <v>2452</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2452</v>
+      </c>
+      <c r="E26" t="n">
+        <v>32</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0364452508128159</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.808113029493467</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-0.0119310649580203</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.00583028753101395</v>
+        <v>230</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>44834</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0316351029871493</v>
+        <v>0.0289154405184505</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000147854101651224</v>
+        <v>0.174007055648452</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0000883367535069864</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0201952317635065</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0367145536604449</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.00719251480464529</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>3639</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>44012</v>
+        <v>1820</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E27" t="n">
+        <v>664</v>
       </c>
       <c r="F27" t="n">
-        <v>0.081397391427741</v>
+        <v>90</v>
       </c>
       <c r="G27" t="n">
-        <v>1.00221612145669</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.0308676055772493</v>
+        <v>421</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>44835</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>44926</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0992623547604287</v>
+        <v>0.0143414094716197</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00661239997460428</v>
+        <v>0.122305090648543</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.00562048519617784</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0155757301145975</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.00171300760788312</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>3680</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>44013</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>44104</v>
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2430</v>
       </c>
       <c r="F28" t="n">
-        <v>0.100024602705871</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.887907102349446</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0420044138540435</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.138585564195694</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.00976442973697907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="J28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C29" t="n">
-        <v>3680</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>44196</v>
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27</v>
       </c>
       <c r="F29" t="n">
-        <v>0.11185973770975</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.22197259843216</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0570467110669919</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.150257646807193</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0205483829427993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>3600</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>44197</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>44286</v>
+        <v>1365</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1606</v>
+      </c>
+      <c r="E30" t="n">
+        <v>674</v>
       </c>
       <c r="F30" t="n">
-        <v>0.143110086548277</v>
+        <v>612</v>
       </c>
       <c r="G30" t="n">
-        <v>1.1958977395115</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.0828867957292895</v>
+        <v>424</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>43921</v>
       </c>
       <c r="J30" t="n">
-        <v>0.207728534027376</v>
+        <v>0.0364452508128159</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0263131341539175</v>
+        <v>0.808113029493467</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0119310649580203</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.00583028753101395</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0316351029871493</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.000147854101651224</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="n">
+        <v>3639</v>
+      </c>
+      <c r="D31" t="n">
         <v>3640</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <v>44287</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>44377</v>
+      <c r="E31" t="n">
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.163657035997969</v>
+        <v>462</v>
       </c>
       <c r="G31" t="n">
-        <v>1.75876156774546</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.111137281210117</v>
+        <v>546</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>43922</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>44012</v>
       </c>
       <c r="J31" t="n">
-        <v>0.223193891507192</v>
+        <v>0.081397391427741</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0284935854247498</v>
+        <v>1.00221612145669</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0308676055772493</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0992623547604287</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.00661239997460428</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -1530,34 +1896,46 @@
       <c r="C32" t="n">
         <v>3680</v>
       </c>
-      <c r="D32" s="1" t="n">
-        <v>44378</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>44469</v>
+      <c r="D32" t="n">
+        <v>3680</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.189064832606716</v>
+        <v>308</v>
       </c>
       <c r="G32" t="n">
-        <v>1.40160648365574</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.0969367672640876</v>
+        <v>397</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>44104</v>
       </c>
       <c r="J32" t="n">
-        <v>0.221238160383068</v>
+        <v>0.100024602705871</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0346260201994237</v>
+        <v>0.887907102349446</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0420044138540435</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.138585564195694</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.00976442973697907</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -1565,34 +1943,46 @@
       <c r="C33" t="n">
         <v>3680</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>44470</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>44561</v>
+      <c r="D33" t="n">
+        <v>3680</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.164425893537813</v>
+        <v>178</v>
       </c>
       <c r="G33" t="n">
-        <v>2.40966284884659</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.0714499679993023</v>
+        <v>393</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>44196</v>
       </c>
       <c r="J33" t="n">
-        <v>0.195905122150209</v>
+        <v>0.11185973770975</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0133181552358619</v>
+        <v>1.22197259843216</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0570467110669919</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.150257646807193</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0205483829427993</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -1600,34 +1990,46 @@
       <c r="C34" t="n">
         <v>3600</v>
       </c>
-      <c r="D34" s="1" t="n">
-        <v>44562</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>44651</v>
+      <c r="D34" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0989869996192913</v>
+        <v>141</v>
       </c>
       <c r="G34" t="n">
-        <v>1.49049801217417</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.0335745056271578</v>
+        <v>200</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>44197</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>44286</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1091585142089</v>
+        <v>0.143110086548277</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0046854715070554</v>
+        <v>1.1958977395115</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0828867957292895</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.207728534027376</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0263131341539175</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
@@ -1635,940 +2037,1698 @@
       <c r="C35" t="n">
         <v>3640</v>
       </c>
-      <c r="D35" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>44742</v>
+      <c r="D35" t="n">
+        <v>3640</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0915214231682029</v>
+        <v>96</v>
       </c>
       <c r="G35" t="n">
-        <v>1.79834280208847</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.00637668977674732</v>
+        <v>204</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>44377</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0620362204225217</v>
+        <v>0.163657035997969</v>
       </c>
       <c r="K35" t="n">
-        <v>0.00119404317897418</v>
+        <v>1.75876156774546</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.111137281210117</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.223193891507192</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0284935854247498</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="n">
-        <v>3675</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>44834</v>
+        <v>3680</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3680</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0580273049558959</v>
+        <v>96</v>
       </c>
       <c r="G36" t="n">
-        <v>0.660152359269896</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.0117717927612671</v>
+        <v>177</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>44378</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>44469</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0461760979434247</v>
+        <v>0.189064832606716</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00190805368480647</v>
+        <v>1.40160648365574</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0969367672640876</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.221238160383068</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.0346260201994237</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>2710</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>44835</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>44907</v>
+        <v>3680</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3680</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.046273192716986</v>
+        <v>105</v>
       </c>
       <c r="G37" t="n">
-        <v>0.721067505201309</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.0056126727984254</v>
+        <v>222</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>44561</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0293830079163125</v>
+        <v>0.164425893537813</v>
       </c>
       <c r="K37" t="n">
-        <v>0.000850321857759529</v>
+        <v>2.40966284884659</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0714499679993023</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.195905122150209</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.0133181552358619</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C38" t="n">
-        <v>1199</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>43921</v>
+        <v>3600</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.095726334551579</v>
+        <v>106</v>
       </c>
       <c r="G38" t="n">
-        <v>7.26984126984127</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.0119890293645904</v>
+        <v>69</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>44562</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>44651</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0672943466787218</v>
+        <v>0.0989869996192913</v>
       </c>
       <c r="K38" t="n">
-        <v>0.00149045684349033</v>
+        <v>1.49049801217417</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0335745056271578</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1091585142089</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.0046854715070554</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C39" t="n">
         <v>3640</v>
       </c>
-      <c r="D39" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>44012</v>
+      <c r="D39" t="n">
+        <v>3640</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.28513255523087</v>
+        <v>190</v>
       </c>
       <c r="G39" t="n">
-        <v>14.2222222222222</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.14465990448585</v>
+        <v>414</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>44742</v>
       </c>
       <c r="J39" t="n">
-        <v>0.297331688777661</v>
+        <v>0.0915214231682029</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0657514678910489</v>
+        <v>1.79834280208847</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.00637668977674732</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0620362204225217</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.00119404317897418</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
         <v>26</v>
       </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
       <c r="C40" t="n">
-        <v>3680</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>44013</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>44104</v>
+        <v>3675</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3675</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>0.221417214004356</v>
+        <v>72</v>
       </c>
       <c r="G40" t="n">
-        <v>1.4114627887083</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.161566588138437</v>
+        <v>206</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>44834</v>
       </c>
       <c r="J40" t="n">
-        <v>0.297053250575903</v>
+        <v>0.0580273049558959</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0752773034162016</v>
+        <v>0.660152359269896</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0117717927612671</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0461760979434247</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.00190805368480647</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C41" t="n">
-        <v>3680</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>44196</v>
+        <v>2710</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2710</v>
+      </c>
+      <c r="E41" t="n">
+        <v>970</v>
       </c>
       <c r="F41" t="n">
-        <v>0.315653311108152</v>
+        <v>72</v>
       </c>
       <c r="G41" t="n">
-        <v>3.2255598868761</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.0184037291007162</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.266485766826448</v>
+        <v>338</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>44835</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>44926</v>
       </c>
       <c r="J41" t="n">
-        <v>0.448192723337723</v>
+        <v>0.046273192716986</v>
       </c>
       <c r="K41" t="n">
-        <v>0.124051466517826</v>
+        <v>0.721067505201309</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0056126727984254</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.0293830079163125</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.000850321857759529</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
         <v>3600</v>
       </c>
-      <c r="D42" s="1" t="n">
-        <v>44197</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>44286</v>
-      </c>
       <c r="F42" t="n">
-        <v>0.41993292855794</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.64918095557178</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.0404908968596351</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.356584588559615</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.588737812934906</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.154806935733397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="J42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C43" t="n">
-        <v>3640</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>44287</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>44377</v>
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>40</v>
       </c>
       <c r="F43" t="n">
-        <v>0.556958555180924</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.03658672277238</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.0119196614816139</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.407653138560669</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.770530924800924</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.216331809169354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" t="n">
-        <v>3680</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>44378</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>44469</v>
+        <v>1199</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1439</v>
+      </c>
+      <c r="E44" t="n">
+        <v>841</v>
       </c>
       <c r="F44" t="n">
-        <v>0.388968657109682</v>
+        <v>369</v>
       </c>
       <c r="G44" t="n">
-        <v>2.17847877115678</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.00949185361663353</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.305526524065146</v>
+        <v>272</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>43921</v>
       </c>
       <c r="J44" t="n">
-        <v>0.550792127450008</v>
+        <v>0.095726334551579</v>
       </c>
       <c r="K44" t="n">
-        <v>0.101033690887402</v>
+        <v>7.26984126984127</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0119890293645904</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0672943466787218</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.00149045684349033</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" t="n">
-        <v>3680</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>44470</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>44561</v>
+        <v>3640</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3640</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.324946333607786</v>
+        <v>236</v>
       </c>
       <c r="G45" t="n">
-        <v>2.17434603087311</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.00578942064273485</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.253146799795137</v>
+        <v>659</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>43922</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>44012</v>
       </c>
       <c r="J45" t="n">
-        <v>0.427272547870584</v>
+        <v>0.28513255523087</v>
       </c>
       <c r="K45" t="n">
-        <v>0.123236721483987</v>
+        <v>14.2222222222222</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.14465990448585</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.297331688777661</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0657514678910489</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" t="n">
-        <v>3600</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>44562</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>44651</v>
+        <v>3680</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3680</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.309160363114258</v>
+        <v>62</v>
       </c>
       <c r="G46" t="n">
-        <v>2.17586391055779</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.00739818858452993</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.247321972994713</v>
+        <v>392</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>44104</v>
       </c>
       <c r="J46" t="n">
-        <v>0.411505246687311</v>
+        <v>0.221417214004356</v>
       </c>
       <c r="K46" t="n">
-        <v>0.12948426380064</v>
+        <v>1.4114627887083</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.161566588138437</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.297053250575903</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.0752773034162016</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C47" t="n">
-        <v>3640</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>44742</v>
+        <v>3680</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3680</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.19098788484396</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>1.9545275668618</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.00130562206253855</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.124461954270339</v>
+        <v>18</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>44196</v>
       </c>
       <c r="J47" t="n">
-        <v>0.265785348278581</v>
+        <v>0.315653311108152</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0520504149848998</v>
+        <v>3.2255598868761</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0184037291007162</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.266485766826448</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.448192723337723</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.124051466517826</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48" t="n">
-        <v>3588</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>44834</v>
+        <v>3600</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.114294197075445</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.904209028748846</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.00256956365100557</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.0677648760408585</v>
+        <v>77</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>44197</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>44286</v>
       </c>
       <c r="J48" t="n">
-        <v>0.153898982964728</v>
+        <v>0.41993292855794</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0313157335876839</v>
+        <v>2.64918095557178</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0404908968596351</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.356584588559615</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.588737812934906</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.154806935733397</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C49" t="n">
-        <v>2742</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>44835</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>44907</v>
+        <v>3640</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3640</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0717590187272192</v>
+        <v>35</v>
       </c>
       <c r="G49" t="n">
-        <v>0.486512617373078</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.000806765130627386</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.0377305863347486</v>
+        <v>161</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>44377</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0960909347564712</v>
+        <v>0.556958555180924</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0193509418445729</v>
+        <v>3.03658672277238</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0119196614816139</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.407653138560669</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.770530924800924</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.216331809169354</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C50" t="n">
-        <v>101</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>43878</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>43921</v>
+        <v>3680</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3680</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0572609382710493</v>
+        <v>23</v>
       </c>
       <c r="G50" t="n">
-        <v>0.375180375180375</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.0122613632183626</v>
+        <v>73</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>44378</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>44469</v>
       </c>
       <c r="J50" t="n">
-        <v>0.109758236252036</v>
+        <v>0.388968657109682</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>2.17847877115678</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.00949185361663353</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.305526524065146</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.550792127450008</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.101033690887402</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C51" t="n">
-        <v>455</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>44012</v>
+        <v>3680</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3680</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0772121014247553</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>1.03732100575037</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.001915848280143</v>
+        <v>20</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>44561</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0598152643698985</v>
+        <v>0.324946333607786</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>2.17434603087311</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.00578942064273485</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.253146799795137</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.427272547870584</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.123236721483987</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C52" t="n">
-        <v>460</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>44013</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>44104</v>
+        <v>3600</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.104871331161387</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.542100671767859</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.00915963054409532</v>
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>44562</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>44651</v>
       </c>
       <c r="J52" t="n">
-        <v>0.175506359025258</v>
+        <v>0.309160363114258</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>2.17586391055779</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.00739818858452993</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.247321972994713</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.411505246687311</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.12948426380064</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C53" t="n">
-        <v>460</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>44196</v>
+        <v>3640</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3640</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0468160992415613</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>0.354036860935442</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.00376995483977255</v>
+        <v>16</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>44742</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0762517616014384</v>
+        <v>0.19098788484396</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1.9545275668618</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.00130562206253855</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.124461954270339</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.265785348278581</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.0520504149848998</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C54" t="n">
-        <v>450</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>44197</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>44286</v>
+        <v>3588</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3588</v>
+      </c>
+      <c r="E54" t="n">
+        <v>92</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0302576626270869</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.253747885434288</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.00426405479681859</v>
+        <v>57</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>44834</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0431255470257081</v>
+        <v>0.114294197075445</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>0.904209028748846</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.00256956365100557</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0677648760408585</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.153898982964728</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.0313157335876839</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" t="s">
         <v>27</v>
       </c>
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
       <c r="C55" t="n">
-        <v>455</v>
-      </c>
-      <c r="D55" s="1" t="n">
-        <v>44287</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>44377</v>
+        <v>2742</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2742</v>
+      </c>
+      <c r="E55" t="n">
+        <v>938</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0512082713926301</v>
+        <v>15</v>
       </c>
       <c r="G55" t="n">
-        <v>0.354195894989137</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.0157133878064111</v>
+        <v>43</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>44835</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>44926</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0472268429885047</v>
+        <v>0.0717590187272192</v>
       </c>
       <c r="K55" t="n">
-        <v>0.00130968177999757</v>
+        <v>0.486512617373078</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.000806765130627386</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0377305863347486</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0960909347564712</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.0193509418445729</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C56" t="n">
-        <v>460</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>44378</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>44469</v>
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3600</v>
       </c>
       <c r="F56" t="n">
-        <v>0.170806788926839</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1.59078098578318</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.138108657214963</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.237161784717851</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.011002091522095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="J56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C57" t="n">
-        <v>460</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>44470</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>44561</v>
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>40</v>
       </c>
       <c r="F57" t="n">
-        <v>0.235308561160434</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1.23453459933822</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.00045893522911544</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.0878379508148606</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.323387015214576</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.0266994743466135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
-        <v>450</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>44562</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>44651</v>
+        <v>101</v>
+      </c>
+      <c r="D58" t="n">
+        <v>131</v>
+      </c>
+      <c r="E58" t="n">
+        <v>154</v>
       </c>
       <c r="F58" t="n">
-        <v>0.348343842606803</v>
+        <v>64</v>
       </c>
       <c r="G58" t="n">
-        <v>1.74235782893734</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.0000242996488891971</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.0994272007765005</v>
+        <v>29</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>43921</v>
       </c>
       <c r="J58" t="n">
-        <v>0.628907589705201</v>
+        <v>0.0572609382710493</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0246354990928948</v>
+        <v>0.375180375180375</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0122613632183626</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.109758236252036</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C59" t="n">
         <v>455</v>
       </c>
-      <c r="D59" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>44742</v>
+      <c r="D59" t="n">
+        <v>455</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.232684080910901</v>
+        <v>297</v>
       </c>
       <c r="G59" t="n">
-        <v>1.01860095040706</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.0000575738019491181</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.0711322912424837</v>
+        <v>100</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>43922</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>44012</v>
       </c>
       <c r="J59" t="n">
-        <v>0.475592240764992</v>
+        <v>0.0772121014247553</v>
       </c>
       <c r="K59" t="n">
-        <v>0.00413113759707159</v>
+        <v>1.03732100575037</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.001915848280143</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.0598152643698985</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C60" t="n">
         <v>460</v>
       </c>
-      <c r="D60" s="1" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>44834</v>
+      <c r="D60" t="n">
+        <v>460</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.124718253142234</v>
+        <v>190</v>
       </c>
       <c r="G60" t="n">
-        <v>0.548749757437131</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.0000130749108429382</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.051758400976105</v>
+        <v>99</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>44104</v>
       </c>
       <c r="J60" t="n">
-        <v>0.222959364084698</v>
+        <v>0.104871331161387</v>
       </c>
       <c r="K60" t="n">
-        <v>0.00134660601412982</v>
+        <v>0.542100671767859</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.00915963054409532</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.175506359025258</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="n">
+        <v>460</v>
+      </c>
+      <c r="D61" t="n">
+        <v>460</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>234</v>
+      </c>
+      <c r="G61" t="n">
+        <v>120</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>44196</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0468160992415613</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.354036860935442</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.00376995483977255</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.0762517616014384</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" t="n">
+        <v>450</v>
+      </c>
+      <c r="D62" t="n">
+        <v>450</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>206</v>
+      </c>
+      <c r="G62" t="n">
+        <v>165</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>44197</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>44286</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.0302576626270869</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.253747885434288</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.00426405479681859</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.0431255470257081</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="n">
+        <v>455</v>
+      </c>
+      <c r="D63" t="n">
+        <v>455</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>148</v>
+      </c>
+      <c r="G63" t="n">
+        <v>78</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>44377</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.0512082713926301</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.354195894989137</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.0157133878064111</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.0472268429885047</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.00130968177999757</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="n">
+        <v>460</v>
+      </c>
+      <c r="D64" t="n">
+        <v>460</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>47</v>
+      </c>
+      <c r="G64" t="n">
+        <v>35</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>44378</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>44469</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.170806788926839</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.59078098578318</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.138108657214963</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.237161784717851</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.011002091522095</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="n">
+        <v>460</v>
+      </c>
+      <c r="D65" t="n">
+        <v>460</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="n">
+        <v>36</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>44561</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.235308561160434</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.23453459933822</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.00045893522911544</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.0878379508148606</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.323387015214576</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.0266994743466135</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="n">
+        <v>450</v>
+      </c>
+      <c r="D66" t="n">
+        <v>450</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>31</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>44562</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.348343842606803</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1.74235782893734</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0000242996488891971</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0994272007765005</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.628907589705201</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.0246354990928948</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="n">
+        <v>455</v>
+      </c>
+      <c r="D67" t="n">
+        <v>455</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" t="n">
+        <v>82</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.232684080910901</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1.01860095040706</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0000575738019491181</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0711322912424837</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.475592240764992</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.00413113759707159</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="n">
+        <v>460</v>
+      </c>
+      <c r="D68" t="n">
+        <v>460</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>36</v>
+      </c>
+      <c r="G68" t="n">
+        <v>86</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>44834</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.124718253142234</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.548749757437131</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0000130749108429382</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.051758400976105</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.222959364084698</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.00134660601412982</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
         <v>27</v>
       </c>
-      <c r="B61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" t="n">
+      <c r="C69" t="n">
         <v>353</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D69" t="n">
+        <v>353</v>
+      </c>
+      <c r="E69" t="n">
+        <v>107</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>71</v>
+      </c>
+      <c r="H69" s="1" t="n">
         <v>44835</v>
       </c>
-      <c r="E61" s="1" t="n">
-        <v>44907</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="I69" s="1" t="n">
+        <v>44926</v>
+      </c>
+      <c r="J69" t="n">
         <v>0.068576671846789</v>
       </c>
-      <c r="G61" t="n">
+      <c r="K69" t="n">
         <v>0.244948479608616</v>
       </c>
-      <c r="H61" t="n">
+      <c r="L69" t="n">
         <v>0.0000938526513374003</v>
       </c>
-      <c r="I61" t="n">
+      <c r="M69" t="n">
         <v>0.00810651815828693</v>
       </c>
-      <c r="J61" t="n">
+      <c r="N69" t="n">
         <v>0.131804908758803</v>
       </c>
-      <c r="K61" t="n">
+      <c r="O69" t="n">
         <v>0.00112606511656229</v>
       </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>450</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="J70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
